--- a/Data/Output/OCRExractionResult.xlsx
+++ b/Data/Output/OCRExractionResult.xlsx
@@ -51,46 +51,106 @@
     <x:t>Total Due</x:t>
   </x:si>
   <x:si>
+    <x:t>284212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aenean LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4139.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1938 Amet Avenue Lake Cowichan USA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17310.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3217 Nunc St. Buckley, Washington USA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1009.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9778.40</x:t>
+  </x:si>
+  <x:si>
     <x:t>18752</x:t>
   </x:si>
   <x:si>
     <x:t>2019-07-01</x:t>
   </x:si>
   <x:si>
-    <x:t>1938 Amet Avenue Lake Cowichan USA</x:t>
-  </x:si>
-  <x:si>
     <x:t>1204.80</x:t>
   </x:si>
   <x:si>
-    <x:t>11577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17310.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3217 Nunc St. Buckley, Washington USA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1009.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>284213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-06-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9778.40</x:t>
+    <x:t>284228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1800.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>879.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6300.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sit Amet Corp.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>284210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3000.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-06-26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7288.80</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -524,38 +584,38 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -566,37 +626,345 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="A9" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="A10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="A11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="A12" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="B12" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="A13" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="A14" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="A15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="A16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="A17" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="A18" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="A19" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="A20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="A21" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
